--- a/biology/Botanique/Allium_senescens/Allium_senescens.xlsx
+++ b/biology/Botanique/Allium_senescens/Allium_senescens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Allium senescens, communément appelé «ciboulette vieillissante»[2], «ail allemand», ou «ciboulette à feuilles larges»[3], est une espèce de plante à fleurs du genre Allium (qui comprend tous les oignons et ails ornementaux et culinaires).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Allium senescens, communément appelé «ciboulette vieillissante», «ail allemand», ou «ciboulette à feuilles larges», est une espèce de plante à fleurs du genre Allium (qui comprend tous les oignons et ails ornementaux et culinaires).
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Descriptif</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante herbacée bulbeuse et vivace. Elle produit jusqu'à 30 fleurs roses en ombelles caractéristiques au milieu et à la fin de l'été et la hampe florale fait 40 cm de hauteur. Le feuillage est fin en forme de lanières. 
 Elle est rustique et n'est pas sensible au gel. Elle est en fleurs de juin à juillet. L'espèce est hermaphrodite et entomophile. La plante est autofertile.
@@ -544,9 +558,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Deux sous-espèces ont été nommées[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Deux sous-espèces ont été nommées :
 Allium senescens subsp. glaucum
 Allium senescens subsp. senescent</t>
         </is>
@@ -576,9 +592,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Allium senescens est originaire du nord de l'Europe et de l'Asie, de la Sibérie à la Corée. Il a été introduit et naturalisé dans certaines parties de l'Europe, y compris la République tchèque et l'ex-Yougoslavie[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Allium senescens est originaire du nord de l'Europe et de l'Asie, de la Sibérie à la Corée. Il a été introduit et naturalisé dans certaines parties de l'Europe, y compris la République tchèque et l'ex-Yougoslavie.
 </t>
         </is>
       </c>
@@ -607,10 +625,12 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Allium senescens est cultivé pour ses qualités ornementales et comme source de gènes en raison de sa parenté génétique tertiaire avec A. cepa (l'oignon commun)[3]. 
-Au Japon il est consommé comme un légume[5]
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Allium senescens est cultivé pour ses qualités ornementales et comme source de gènes en raison de sa parenté génétique tertiaire avec A. cepa (l'oignon commun). 
+Au Japon il est consommé comme un légume
 </t>
         </is>
       </c>
